--- a/raw_game_pulls/6200812_Play-By-Play for Norfolk St. vs South Carolina St..xlsx
+++ b/raw_game_pulls/6200812_Play-By-Play for Norfolk St. vs South Carolina St..xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdona\repos\ncaa_2024\raw_game_pulls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED6CBED-C056-45E6-9573-0AED727340F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -715,120 +721,45 @@
     <t>00:02</t>
   </si>
   <si>
-    <t>SCSt Turnover by Brown, Raquan</t>
-  </si>
-  <si>
     <t>Jumper MISSED by Norf's Ings, Christian</t>
   </si>
   <si>
-    <t>SCSt Defensive REBOUND by Mccarty, Caleb</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by SCSt's Mccarty, Caleb</t>
-  </si>
-  <si>
     <t>Norf Defensive REBOUND by Darden, Jaylani</t>
   </si>
   <si>
     <t>Norf Turnover by team</t>
   </si>
   <si>
-    <t>Layup MISSED by SCSt's Croskey, Omar</t>
-  </si>
-  <si>
     <t>3 Pointer MISSED by Norf's Thomas, Jamarii</t>
   </si>
   <si>
-    <t>SCSt Defensive REBOUND by Croskey, Omar</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by SCSt's Teal, Michael</t>
-  </si>
-  <si>
-    <t>SCSt Offensive REBOUND by Brown, Raquan</t>
-  </si>
-  <si>
-    <t>Layup GOOD by SCSt's Brown, Raquan</t>
-  </si>
-  <si>
     <t>Layup MISSED by Norf's Ings, Christian</t>
   </si>
   <si>
-    <t>SCSt Defensive REBOUND by Brown, Raquan</t>
-  </si>
-  <si>
-    <t>Subbing out for SCSt - Croskey, Omar</t>
-  </si>
-  <si>
-    <t>Subbing out for SCSt - Mccarty, Caleb</t>
-  </si>
-  <si>
-    <t>Subbing out for SCSt - James, Dallas</t>
-  </si>
-  <si>
-    <t>Subbing in for SCSt - Simpson, Jordan</t>
-  </si>
-  <si>
-    <t>Subbing in for SCSt - Jones, Drayton</t>
-  </si>
-  <si>
-    <t>Subbing in for SCSt - Everett, Davion</t>
-  </si>
-  <si>
     <t>Jumper GOOD by Norf's Thomas, Jamarii</t>
   </si>
   <si>
-    <t>SCSt Turnover by Teal, Michael</t>
-  </si>
-  <si>
     <t>Norf Steal by Mading, Kuluel</t>
   </si>
   <si>
     <t>Layup GOOD by Norf's Mading, Kuluel</t>
   </si>
   <si>
-    <t>Layup MISSED by SCSt's Brown, Raquan</t>
-  </si>
-  <si>
     <t>Layup GOOD by Norf's Darden, Jaylani</t>
   </si>
   <si>
     <t>Norf Assist by Bladen, Tyrel</t>
   </si>
   <si>
-    <t>Slam Dunk GOOD by SCSt's Jones, Drayton</t>
-  </si>
-  <si>
-    <t>SCSt Assist by Simpson, Jordan</t>
-  </si>
-  <si>
     <t>Subbing out for Norf - Ings, Christian</t>
   </si>
   <si>
     <t>Subbing in for Norf - Betrand, Allen</t>
   </si>
   <si>
-    <t>Subbing out for SCSt - Teal, Michael</t>
-  </si>
-  <si>
-    <t>Subbing out for SCSt - Brown, Raquan</t>
-  </si>
-  <si>
-    <t>Subbing in for SCSt - Dubinsky, Wilson</t>
-  </si>
-  <si>
-    <t>Subbing in for SCSt - Taylor, Mitchell</t>
-  </si>
-  <si>
     <t>Layup MISSED by Norf's Betrand, Allen</t>
   </si>
   <si>
-    <t>SCSt Defensive REBOUND by Simpson, Jordan</t>
-  </si>
-  <si>
-    <t>SCSt Turnover by Taylor, Mitchell</t>
-  </si>
-  <si>
     <t>Norf Steal by Darden, Jaylani</t>
   </si>
   <si>
@@ -838,9 +769,6 @@
     <t>Norf Assist by Darden, Jaylani</t>
   </si>
   <si>
-    <t>Jumper MISSED by SCSt's Simpson, Jordan</t>
-  </si>
-  <si>
     <t>Norf Defensive REBOUND by Bladen, Tyrel</t>
   </si>
   <si>
@@ -850,39 +778,18 @@
     <t>Norf Turnover by Betrand, Allen</t>
   </si>
   <si>
-    <t>SCSt Turnover by Simpson, Jordan</t>
-  </si>
-  <si>
-    <t>Subbing out for SCSt - Simpson, Jordan</t>
-  </si>
-  <si>
-    <t>Subbing in for SCSt - Taylor, Atiba</t>
-  </si>
-  <si>
-    <t>Foul on SCSt's Jones, Drayton</t>
-  </si>
-  <si>
     <t>Slam Dunk GOOD by Norf's Bladen, Tyrel</t>
   </si>
   <si>
     <t>Norf Assist by Thomas, Jamarii</t>
   </si>
   <si>
-    <t>Layup MISSED by SCSt's Jones, Drayton</t>
-  </si>
-  <si>
     <t>Subbing out for Norf - Bladen, Tyrel</t>
   </si>
   <si>
     <t>Subbing in for Norf - Chambers, Nyzaiah</t>
   </si>
   <si>
-    <t>Subbing out for SCSt - Everett, Davion</t>
-  </si>
-  <si>
-    <t>Subbing in for SCSt - Mccarty, Caleb</t>
-  </si>
-  <si>
     <t>Jumper MISSED by Norf's Betrand, Allen</t>
   </si>
   <si>
@@ -922,51 +829,21 @@
     <t>Subbing in for Norf - Jenkins, Tyrese</t>
   </si>
   <si>
-    <t>Subbing out for SCSt - Taylor, Atiba</t>
-  </si>
-  <si>
-    <t>Subbing in for SCSt - Teal, Michael</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by SCSt's Taylor, Mitchell</t>
-  </si>
-  <si>
     <t>Norf Defensive REBOUND by Betrand, Allen</t>
   </si>
   <si>
     <t>3 Pointer MISSED by Norf's Betrand, Allen</t>
   </si>
   <si>
-    <t>SCSt Defensive REBOUND by Jones, Drayton</t>
-  </si>
-  <si>
-    <t>Foul on SCSt's Taylor, Mitchell</t>
-  </si>
-  <si>
     <t>Media timeout</t>
   </si>
   <si>
-    <t>Subbing out for SCSt - Taylor, Mitchell</t>
-  </si>
-  <si>
-    <t>Subbing out for SCSt - Jones, Drayton</t>
-  </si>
-  <si>
-    <t>Subbing in for SCSt - Brown, Raquan</t>
-  </si>
-  <si>
     <t>Jumper GOOD by Norf's Chambers, Nyzaiah</t>
   </si>
   <si>
     <t>Norf Assist by Jenkins, Tyrese</t>
   </si>
   <si>
-    <t>3 Pointer GOOD by SCSt's Dubinsky, Wilson</t>
-  </si>
-  <si>
-    <t>SCSt Assist by Everett, Davion</t>
-  </si>
-  <si>
     <t>Subbing out for Norf - Beale jr., George</t>
   </si>
   <si>
@@ -979,54 +856,27 @@
     <t>Norf Assist by Chambers, Nyzaiah</t>
   </si>
   <si>
-    <t>Layup GOOD by SCSt's Mccarty, Caleb</t>
-  </si>
-  <si>
-    <t>SCSt Assist by Dubinsky, Wilson</t>
-  </si>
-  <si>
     <t>Foul on Norf's Beale jr., George</t>
   </si>
   <si>
-    <t>Free Throw MISSED by SCSt's Mccarty, Caleb</t>
-  </si>
-  <si>
     <t>Norf Defensive REBOUND by Chambers, Nyzaiah</t>
   </si>
   <si>
-    <t>Foul on SCSt's Everett, Davion</t>
-  </si>
-  <si>
     <t>Free Throw MISSED by Norf's Betrand, Allen</t>
   </si>
   <si>
     <t>Norf gets a REBOUND from a dead ball.</t>
   </si>
   <si>
-    <t>Subbing in for SCSt - Croskey, Omar</t>
-  </si>
-  <si>
-    <t>Subbing in for SCSt - Marrow, James</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by Norf's Betrand, Allen</t>
   </si>
   <si>
-    <t>SCSt Defensive REBOUND by Teal, Michael</t>
-  </si>
-  <si>
-    <t>Foul on SCSt's Teal, Michael</t>
-  </si>
-  <si>
     <t>Foul on Norf's Chambers, Nyzaiah</t>
   </si>
   <si>
     <t>Norf Turnover by Chambers, Nyzaiah</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by SCSt's Brown, Raquan</t>
-  </si>
-  <si>
     <t>Norf Defensive REBOUND by Ings, Christian</t>
   </si>
   <si>
@@ -1045,72 +895,30 @@
     <t>Jumper MISSED by Norf's Darden, Jaylani</t>
   </si>
   <si>
-    <t>SCSt Defensive REBOUND by Marrow, James</t>
-  </si>
-  <si>
-    <t>SCSt Turnover by Croskey, Omar</t>
-  </si>
-  <si>
-    <t>Subbing out for SCSt - Marrow, James</t>
-  </si>
-  <si>
     <t>Free Throw MISSED by Norf's Bladen, Tyrel</t>
   </si>
   <si>
-    <t>SCSt Defensive REBOUND by Dubinsky, Wilson</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by SCSt's Croskey, Omar</t>
-  </si>
-  <si>
     <t>Layup GOOD by Norf's Bladen, Tyrel</t>
   </si>
   <si>
-    <t>Layup MISSED by SCSt's Mccarty, Caleb</t>
-  </si>
-  <si>
     <t>Norf Turnover by Thomas, Jamarii</t>
   </si>
   <si>
-    <t>SCSt Assist by Croskey, Omar</t>
-  </si>
-  <si>
     <t>Foul on Norf's Bladen, Tyrel</t>
   </si>
   <si>
     <t>Norf Turnover by Bladen, Tyrel</t>
   </si>
   <si>
-    <t>SCSt gets a REBOUND from a dead ball.</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by SCSt's Mccarty, Caleb</t>
-  </si>
-  <si>
     <t>3 Pointer MISSED by Norf's Beale jr., George</t>
   </si>
   <si>
-    <t>SCSt Defensive REBOUND by Taylor, Atiba</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by SCSt's Dubinsky, Wilson</t>
-  </si>
-  <si>
     <t>Norf Defensive REBOUND by Jenkins, Tyrese</t>
   </si>
   <si>
-    <t>Layup MISSED by SCSt's Taylor, Atiba</t>
-  </si>
-  <si>
     <t>Foul on Norf's Jenkins, Tyrese</t>
   </si>
   <si>
-    <t>Free Throw MISSED by SCSt's Jones, Drayton</t>
-  </si>
-  <si>
-    <t>Subbing out for SCSt - Dubinsky, Wilson</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by Norf's Darden, Jaylani</t>
   </si>
   <si>
@@ -1120,18 +928,6 @@
     <t>3 Pointer MISSED by Norf's Darden, Jaylani</t>
   </si>
   <si>
-    <t>SCSt Defensive REBOUND by Everett, Davion</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by SCSt's Croskey, Omar</t>
-  </si>
-  <si>
-    <t>SCSt Offensive REBOUND by Mccarty, Caleb</t>
-  </si>
-  <si>
-    <t>SCSt Turnover by Mccarty, Caleb</t>
-  </si>
-  <si>
     <t>Norf Turnover by Jenkins, Tyrese</t>
   </si>
   <si>
@@ -1141,24 +937,12 @@
     <t>Subbing in for Norf - Fields jr., Chris</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by SCSt's Taylor, Atiba</t>
-  </si>
-  <si>
     <t>Norf Defensive REBOUND by Fields jr., Chris</t>
   </si>
   <si>
     <t>Jumper MISSED by Norf's Fields jr., Chris</t>
   </si>
   <si>
-    <t>SCSt Offensive REBOUND by Simpson, Jordan</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by SCSt's Simpson, Jordan</t>
-  </si>
-  <si>
-    <t>Foul on SCSt's Taylor, Atiba</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by Norf's Ings, Christian</t>
   </si>
   <si>
@@ -1168,12 +952,6 @@
     <t>Free Throw MISSED by Norf's Chambers, Nyzaiah</t>
   </si>
   <si>
-    <t>Foul on SCSt's Mccarty, Caleb</t>
-  </si>
-  <si>
-    <t>SCSt Assist by Taylor, Atiba</t>
-  </si>
-  <si>
     <t>Norf takes a 30-second time out.</t>
   </si>
   <si>
@@ -1201,36 +979,18 @@
     <t>Subbing in for Norf - Mading, Kuluel</t>
   </si>
   <si>
-    <t>Subbing in for SCSt - James, Dallas</t>
-  </si>
-  <si>
     <t>Norf Turnover by Mading, Kuluel</t>
   </si>
   <si>
-    <t>SCSt Steal by Brown, Raquan</t>
-  </si>
-  <si>
     <t>Foul on Norf's Mading, Kuluel</t>
   </si>
   <si>
-    <t>Free Throw GOOD by SCSt's Teal, Michael</t>
-  </si>
-  <si>
-    <t>Foul on SCSt's James, Dallas</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by Norf's Bladen, Tyrel</t>
   </si>
   <si>
-    <t>SCSt Turnover by Everett, Davion</t>
-  </si>
-  <si>
     <t>Norf Steal by Thomas, Jamarii</t>
   </si>
   <si>
-    <t>Foul on SCSt's Croskey, Omar</t>
-  </si>
-  <si>
     <t>Foul on Norf's Thomas, Jamarii</t>
   </si>
   <si>
@@ -1246,27 +1006,9 @@
     <t>Norf Defensive REBOUND by Mading, Kuluel</t>
   </si>
   <si>
-    <t>3 Pointer GOOD by SCSt's Brown, Raquan</t>
-  </si>
-  <si>
-    <t>SCSt Assist by Taylor, Mitchell</t>
-  </si>
-  <si>
-    <t>SCSt Steal by Teal, Michael</t>
-  </si>
-  <si>
-    <t>Layup GOOD by SCSt's Croskey, Omar</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by SCSt's Croskey, Omar</t>
-  </si>
-  <si>
     <t>Free Throw MISSED by Norf's Ings, Christian</t>
   </si>
   <si>
-    <t>SCSt Turnover by Marrow, James</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by Norf's Thomas, Jamarii</t>
   </si>
   <si>
@@ -1279,15 +1021,9 @@
     <t>Norf Offensive REBOUND by team</t>
   </si>
   <si>
-    <t>Foul on SCSt's Dubinsky, Wilson</t>
-  </si>
-  <si>
     <t>Free Throw MISSED by Norf's Darden, Jaylani</t>
   </si>
   <si>
-    <t>Foul on SCSt's Marrow, James</t>
-  </si>
-  <si>
     <t>Foul on Norf's Fields jr., Chris</t>
   </si>
   <si>
@@ -1297,117 +1033,51 @@
     <t>Jumper GOOD by Norf's Fields jr., Chris</t>
   </si>
   <si>
-    <t>SCSt Turnover by Taylor, Atiba</t>
-  </si>
-  <si>
-    <t>SCSt Assist by Teal, Michael</t>
-  </si>
-  <si>
-    <t>SCSt Block by Mccarty, Caleb</t>
-  </si>
-  <si>
-    <t>SCSt Defensive REBOUND by team</t>
-  </si>
-  <si>
     <t>Norf Turnover by Fields jr., Chris</t>
   </si>
   <si>
-    <t>Free Throw GOOD by SCSt's Jones, Drayton</t>
-  </si>
-  <si>
     <t>3 Pointer MISSED by Norf's Jenkins, Tyrese</t>
   </si>
   <si>
     <t>Norf Offensive REBOUND by Fields jr., Chris</t>
   </si>
   <si>
-    <t>Jumper MISSED by SCSt's Jones, Drayton</t>
-  </si>
-  <si>
     <t>Layup MISSED by Norf's Chambers, Nyzaiah</t>
   </si>
   <si>
-    <t>Layup MISSED by SCSt's Dubinsky, Wilson</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by SCSt's Simpson, Jordan</t>
-  </si>
-  <si>
     <t>Jumper GOOD by Norf's Bladen, Tyrel</t>
   </si>
   <si>
-    <t>Layup MISSED by SCSt's Teal, Michael</t>
-  </si>
-  <si>
-    <t>SCSt Offensive REBOUND by team</t>
-  </si>
-  <si>
     <t>Norf Block by Jenkins, Tyrese</t>
   </si>
   <si>
-    <t>Jumper GOOD by SCSt's Teal, Michael</t>
-  </si>
-  <si>
-    <t>Foul on SCSt's Brown, Raquan</t>
-  </si>
-  <si>
     <t>Jumper MISSED by Norf's Mading, Kuluel</t>
   </si>
   <si>
     <t>Layup GOOD by Norf's Thomas, Jamarii</t>
   </si>
   <si>
-    <t>SCSt Offensive REBOUND by Jones, Drayton</t>
-  </si>
-  <si>
-    <t>Layup GOOD by SCSt's Jones, Drayton</t>
-  </si>
-  <si>
     <t>3 Pointer GOOD by Norf's Betrand, Allen</t>
   </si>
   <si>
     <t>Norf takes a TIMEOUT</t>
   </si>
   <si>
-    <t>Free Throw GOOD by SCSt's Dubinsky, Wilson</t>
-  </si>
-  <si>
     <t>Norf Steal by Betrand, Allen</t>
   </si>
   <si>
     <t>Norf Assist by Betrand, Allen</t>
   </si>
   <si>
-    <t>Free Throw GOOD by SCSt's Taylor, Atiba</t>
-  </si>
-  <si>
     <t>Free Throw MISSED by Norf's Fields jr., Chris</t>
   </si>
   <si>
-    <t>Free Throw GOOD by SCSt's Brown, Raquan</t>
-  </si>
-  <si>
-    <t>Free Throw MISSED by SCSt's Brown, Raquan</t>
-  </si>
-  <si>
-    <t>SCSt Turnover by team</t>
-  </si>
-  <si>
     <t>Layup GOOD by Norf's Fields jr., Chris</t>
   </si>
   <si>
-    <t>SCSt takes a 30-second time out.</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by Norf's Fields jr., Chris</t>
   </si>
   <si>
-    <t>SCSt takes a TIMEOUT</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by SCSt's Taylor, Atiba</t>
-  </si>
-  <si>
     <t>Slam Dunk GOOD by Norf's Jenkins, Tyrese</t>
   </si>
   <si>
@@ -1417,32 +1087,368 @@
     <t>Layup MISSED by Norf's Thomas, Jamarii</t>
   </si>
   <si>
-    <t>Layup GOOD by SCSt's Taylor, Atiba</t>
-  </si>
-  <si>
     <t>3 Pointer GOOD by Norf's Thomas, Jamarii</t>
   </si>
   <si>
-    <t>Jumper MISSED by SCSt's Taylor, Atiba</t>
-  </si>
-  <si>
     <t>Jumper GOOD by Norf's Betrand, Allen</t>
   </si>
   <si>
     <t>Jumper GOOD by Norf's Darden, Jaylani</t>
   </si>
   <si>
-    <t>SCSt Turnover by Jones, Drayton</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by Norf's Beale jr., George</t>
+  </si>
+  <si>
+    <t>SCSTATE Turnover by Brown, Raquan</t>
+  </si>
+  <si>
+    <t>SCSTATE Defensive REBOUND by Mccarty, Caleb</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by SCSTATE's Mccarty, Caleb</t>
+  </si>
+  <si>
+    <t>Layup MISSED by SCSTATE's Croskey, Omar</t>
+  </si>
+  <si>
+    <t>SCSTATE Defensive REBOUND by Croskey, Omar</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by SCSTATE's Teal, Michael</t>
+  </si>
+  <si>
+    <t>SCSTATE Offensive REBOUND by Brown, Raquan</t>
+  </si>
+  <si>
+    <t>Layup GOOD by SCSTATE's Brown, Raquan</t>
+  </si>
+  <si>
+    <t>SCSTATE Defensive REBOUND by Brown, Raquan</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - Croskey, Omar</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - Mccarty, Caleb</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - James, Dallas</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - Simpson, Jordan</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - Jones, Drayton</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - Everett, Davion</t>
+  </si>
+  <si>
+    <t>SCSTATE Turnover by Teal, Michael</t>
+  </si>
+  <si>
+    <t>Layup MISSED by SCSTATE's Brown, Raquan</t>
+  </si>
+  <si>
+    <t>Slam Dunk GOOD by SCSTATE's Jones, Drayton</t>
+  </si>
+  <si>
+    <t>SCSTATE Assist by Simpson, Jordan</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - Teal, Michael</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - Brown, Raquan</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - Dubinsky, Wilson</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - Taylor, Mitchell</t>
+  </si>
+  <si>
+    <t>SCSTATE Defensive REBOUND by Simpson, Jordan</t>
+  </si>
+  <si>
+    <t>SCSTATE Turnover by Taylor, Mitchell</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by SCSTATE's Simpson, Jordan</t>
+  </si>
+  <si>
+    <t>SCSTATE Turnover by Simpson, Jordan</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - Simpson, Jordan</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - Taylor, Atiba</t>
+  </si>
+  <si>
+    <t>Foul on SCSTATE's Jones, Drayton</t>
+  </si>
+  <si>
+    <t>Layup MISSED by SCSTATE's Jones, Drayton</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - Everett, Davion</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - Mccarty, Caleb</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - Taylor, Atiba</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - Teal, Michael</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by SCSTATE's Taylor, Mitchell</t>
+  </si>
+  <si>
+    <t>SCSTATE Defensive REBOUND by Jones, Drayton</t>
+  </si>
+  <si>
+    <t>Foul on SCSTATE's Taylor, Mitchell</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - Taylor, Mitchell</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - Jones, Drayton</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - Brown, Raquan</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by SCSTATE's Dubinsky, Wilson</t>
+  </si>
+  <si>
+    <t>SCSTATE Assist by Everett, Davion</t>
+  </si>
+  <si>
+    <t>Layup GOOD by SCSTATE's Mccarty, Caleb</t>
+  </si>
+  <si>
+    <t>SCSTATE Assist by Dubinsky, Wilson</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by SCSTATE's Mccarty, Caleb</t>
+  </si>
+  <si>
+    <t>Foul on SCSTATE's Everett, Davion</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - Croskey, Omar</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - Marrow, James</t>
+  </si>
+  <si>
+    <t>SCSTATE Defensive REBOUND by Teal, Michael</t>
+  </si>
+  <si>
+    <t>Foul on SCSTATE's Teal, Michael</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by SCSTATE's Brown, Raquan</t>
+  </si>
+  <si>
+    <t>SCSTATE Defensive REBOUND by Marrow, James</t>
+  </si>
+  <si>
+    <t>SCSTATE Turnover by Croskey, Omar</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - Marrow, James</t>
+  </si>
+  <si>
+    <t>SCSTATE Defensive REBOUND by Dubinsky, Wilson</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by SCSTATE's Croskey, Omar</t>
+  </si>
+  <si>
+    <t>Layup MISSED by SCSTATE's Mccarty, Caleb</t>
+  </si>
+  <si>
+    <t>SCSTATE Assist by Croskey, Omar</t>
+  </si>
+  <si>
+    <t>SCSTATE gets a REBOUND from a dead ball.</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by SCSTATE's Mccarty, Caleb</t>
+  </si>
+  <si>
+    <t>SCSTATE Defensive REBOUND by Taylor, Atiba</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by SCSTATE's Dubinsky, Wilson</t>
+  </si>
+  <si>
+    <t>Layup MISSED by SCSTATE's Taylor, Atiba</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by SCSTATE's Jones, Drayton</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - Dubinsky, Wilson</t>
+  </si>
+  <si>
+    <t>SCSTATE Defensive REBOUND by Everett, Davion</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by SCSTATE's Croskey, Omar</t>
+  </si>
+  <si>
+    <t>SCSTATE Offensive REBOUND by Mccarty, Caleb</t>
+  </si>
+  <si>
+    <t>SCSTATE Turnover by Mccarty, Caleb</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by SCSTATE's Taylor, Atiba</t>
+  </si>
+  <si>
+    <t>SCSTATE Offensive REBOUND by Simpson, Jordan</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by SCSTATE's Simpson, Jordan</t>
+  </si>
+  <si>
+    <t>Foul on SCSTATE's Taylor, Atiba</t>
+  </si>
+  <si>
+    <t>Foul on SCSTATE's Mccarty, Caleb</t>
+  </si>
+  <si>
+    <t>SCSTATE Assist by Taylor, Atiba</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - James, Dallas</t>
+  </si>
+  <si>
+    <t>SCSTATE Steal by Brown, Raquan</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by SCSTATE's Teal, Michael</t>
+  </si>
+  <si>
+    <t>Foul on SCSTATE's James, Dallas</t>
+  </si>
+  <si>
+    <t>SCSTATE Turnover by Everett, Davion</t>
+  </si>
+  <si>
+    <t>Foul on SCSTATE's Croskey, Omar</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by SCSTATE's Brown, Raquan</t>
+  </si>
+  <si>
+    <t>SCSTATE Assist by Taylor, Mitchell</t>
+  </si>
+  <si>
+    <t>SCSTATE Steal by Teal, Michael</t>
+  </si>
+  <si>
+    <t>Layup GOOD by SCSTATE's Croskey, Omar</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by SCSTATE's Croskey, Omar</t>
+  </si>
+  <si>
+    <t>SCSTATE Turnover by Marrow, James</t>
+  </si>
+  <si>
+    <t>Foul on SCSTATE's Dubinsky, Wilson</t>
+  </si>
+  <si>
+    <t>Foul on SCSTATE's Marrow, James</t>
+  </si>
+  <si>
+    <t>SCSTATE Turnover by Taylor, Atiba</t>
+  </si>
+  <si>
+    <t>SCSTATE Assist by Teal, Michael</t>
+  </si>
+  <si>
+    <t>SCSTATE Block by Mccarty, Caleb</t>
+  </si>
+  <si>
+    <t>SCSTATE Defensive REBOUND by team</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by SCSTATE's Jones, Drayton</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by SCSTATE's Jones, Drayton</t>
+  </si>
+  <si>
+    <t>Layup MISSED by SCSTATE's Dubinsky, Wilson</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by SCSTATE's Simpson, Jordan</t>
+  </si>
+  <si>
+    <t>Layup MISSED by SCSTATE's Teal, Michael</t>
+  </si>
+  <si>
+    <t>SCSTATE Offensive REBOUND by team</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by SCSTATE's Teal, Michael</t>
+  </si>
+  <si>
+    <t>Foul on SCSTATE's Brown, Raquan</t>
+  </si>
+  <si>
+    <t>SCSTATE Offensive REBOUND by Jones, Drayton</t>
+  </si>
+  <si>
+    <t>Layup GOOD by SCSTATE's Jones, Drayton</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by SCSTATE's Dubinsky, Wilson</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by SCSTATE's Taylor, Atiba</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by SCSTATE's Brown, Raquan</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by SCSTATE's Brown, Raquan</t>
+  </si>
+  <si>
+    <t>SCSTATE Turnover by team</t>
+  </si>
+  <si>
+    <t>SCSTATE takes a 30-second time out.</t>
+  </si>
+  <si>
+    <t>SCSTATE takes a TIMEOUT</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by SCSTATE's Taylor, Atiba</t>
+  </si>
+  <si>
+    <t>Layup GOOD by SCSTATE's Taylor, Atiba</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by SCSTATE's Taylor, Atiba</t>
+  </si>
+  <si>
+    <t>SCSTATE Turnover by Jones, Drayton</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1505,13 +1511,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1549,7 +1563,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1583,6 +1597,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1617,9 +1632,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1792,14 +1808,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E570"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1816,7 +1832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1830,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1847,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1864,10 +1880,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1881,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1898,10 +1914,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1915,10 +1931,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1932,10 +1948,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1949,10 +1965,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1966,10 +1982,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1983,10 +1999,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2000,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2017,10 +2033,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2034,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2051,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2068,10 +2084,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2085,10 +2101,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2102,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2119,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2136,10 +2152,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2153,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2170,10 +2186,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2187,10 +2203,10 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2204,10 +2220,10 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2221,10 +2237,10 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2238,10 +2254,10 @@
         <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2255,10 +2271,10 @@
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2272,10 +2288,10 @@
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2289,10 +2305,10 @@
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2306,10 +2322,10 @@
         <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2323,10 +2339,10 @@
         <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2340,10 +2356,10 @@
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2357,10 +2373,10 @@
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2374,10 +2390,10 @@
         <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2391,10 +2407,10 @@
         <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2408,10 +2424,10 @@
         <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2425,10 +2441,10 @@
         <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2442,10 +2458,10 @@
         <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2459,10 +2475,10 @@
         <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2476,10 +2492,10 @@
         <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2493,10 +2509,10 @@
         <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2510,10 +2526,10 @@
         <v>6</v>
       </c>
       <c r="E42" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2527,10 +2543,10 @@
         <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2544,10 +2560,10 @@
         <v>6</v>
       </c>
       <c r="E44" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2561,10 +2577,10 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2578,10 +2594,10 @@
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2595,10 +2611,10 @@
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2612,10 +2628,10 @@
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2629,10 +2645,10 @@
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2646,10 +2662,10 @@
         <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2663,10 +2679,10 @@
         <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2680,10 +2696,10 @@
         <v>8</v>
       </c>
       <c r="E52" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2697,10 +2713,10 @@
         <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2714,10 +2730,10 @@
         <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2731,10 +2747,10 @@
         <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2748,10 +2764,10 @@
         <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -2765,10 +2781,10 @@
         <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2782,10 +2798,10 @@
         <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2799,10 +2815,10 @@
         <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2816,10 +2832,10 @@
         <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -2833,10 +2849,10 @@
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2850,10 +2866,10 @@
         <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2867,10 +2883,10 @@
         <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2884,10 +2900,10 @@
         <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2901,10 +2917,10 @@
         <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2918,10 +2934,10 @@
         <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -2935,10 +2951,10 @@
         <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2952,10 +2968,10 @@
         <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -2969,10 +2985,10 @@
         <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2986,10 +3002,10 @@
         <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -3003,10 +3019,10 @@
         <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -3020,10 +3036,10 @@
         <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -3037,10 +3053,10 @@
         <v>12</v>
       </c>
       <c r="E73" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -3054,10 +3070,10 @@
         <v>12</v>
       </c>
       <c r="E74" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -3071,10 +3087,10 @@
         <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -3088,10 +3104,10 @@
         <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -3105,10 +3121,10 @@
         <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -3122,10 +3138,10 @@
         <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -3139,10 +3155,10 @@
         <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -3156,10 +3172,10 @@
         <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -3173,10 +3189,10 @@
         <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -3190,10 +3206,10 @@
         <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -3207,10 +3223,10 @@
         <v>12</v>
       </c>
       <c r="E83" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
@@ -3224,10 +3240,10 @@
         <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3241,10 +3257,10 @@
         <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -3258,10 +3274,10 @@
         <v>12</v>
       </c>
       <c r="E86" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
@@ -3275,10 +3291,10 @@
         <v>12</v>
       </c>
       <c r="E87" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -3292,10 +3308,10 @@
         <v>12</v>
       </c>
       <c r="E88" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -3309,10 +3325,10 @@
         <v>12</v>
       </c>
       <c r="E89" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -3326,10 +3342,10 @@
         <v>14</v>
       </c>
       <c r="E90" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -3343,10 +3359,10 @@
         <v>14</v>
       </c>
       <c r="E91" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3360,10 +3376,10 @@
         <v>14</v>
       </c>
       <c r="E92" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -3377,10 +3393,10 @@
         <v>14</v>
       </c>
       <c r="E93" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -3394,10 +3410,10 @@
         <v>14</v>
       </c>
       <c r="E94" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -3411,10 +3427,10 @@
         <v>14</v>
       </c>
       <c r="E95" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -3428,10 +3444,10 @@
         <v>17</v>
       </c>
       <c r="E96" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
@@ -3445,10 +3461,10 @@
         <v>17</v>
       </c>
       <c r="E97" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -3462,10 +3478,10 @@
         <v>17</v>
       </c>
       <c r="E98" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
@@ -3479,10 +3495,10 @@
         <v>17</v>
       </c>
       <c r="E99" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
@@ -3496,10 +3512,10 @@
         <v>17</v>
       </c>
       <c r="E100" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
@@ -3513,10 +3529,10 @@
         <v>17</v>
       </c>
       <c r="E101" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1</v>
       </c>
@@ -3530,10 +3546,10 @@
         <v>17</v>
       </c>
       <c r="E102" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
@@ -3547,10 +3563,10 @@
         <v>17</v>
       </c>
       <c r="E103" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
@@ -3564,10 +3580,10 @@
         <v>17</v>
       </c>
       <c r="E104" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
@@ -3581,10 +3597,10 @@
         <v>17</v>
       </c>
       <c r="E105" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
@@ -3598,10 +3614,10 @@
         <v>17</v>
       </c>
       <c r="E106" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1</v>
       </c>
@@ -3615,10 +3631,10 @@
         <v>17</v>
       </c>
       <c r="E107" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
@@ -3632,10 +3648,10 @@
         <v>17</v>
       </c>
       <c r="E108" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1</v>
       </c>
@@ -3649,10 +3665,10 @@
         <v>17</v>
       </c>
       <c r="E109" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
@@ -3666,10 +3682,10 @@
         <v>18</v>
       </c>
       <c r="E110" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
@@ -3683,10 +3699,10 @@
         <v>18</v>
       </c>
       <c r="E111" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1</v>
       </c>
@@ -3700,10 +3716,10 @@
         <v>18</v>
       </c>
       <c r="E112" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1</v>
       </c>
@@ -3717,10 +3733,10 @@
         <v>18</v>
       </c>
       <c r="E113" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
@@ -3734,10 +3750,10 @@
         <v>18</v>
       </c>
       <c r="E114" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
@@ -3751,10 +3767,10 @@
         <v>18</v>
       </c>
       <c r="E115" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1</v>
       </c>
@@ -3768,10 +3784,10 @@
         <v>18</v>
       </c>
       <c r="E116" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
@@ -3785,10 +3801,10 @@
         <v>18</v>
       </c>
       <c r="E117" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
@@ -3802,10 +3818,10 @@
         <v>18</v>
       </c>
       <c r="E118" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
@@ -3819,10 +3835,10 @@
         <v>18</v>
       </c>
       <c r="E119" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
@@ -3836,10 +3852,10 @@
         <v>18</v>
       </c>
       <c r="E120" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
@@ -3853,10 +3869,10 @@
         <v>18</v>
       </c>
       <c r="E121" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1</v>
       </c>
@@ -3870,10 +3886,10 @@
         <v>18</v>
       </c>
       <c r="E122" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1</v>
       </c>
@@ -3887,10 +3903,10 @@
         <v>18</v>
       </c>
       <c r="E123" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
@@ -3904,10 +3920,10 @@
         <v>18</v>
       </c>
       <c r="E124" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1</v>
       </c>
@@ -3921,10 +3937,10 @@
         <v>18</v>
       </c>
       <c r="E125" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
@@ -3938,10 +3954,10 @@
         <v>18</v>
       </c>
       <c r="E126" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1</v>
       </c>
@@ -3955,10 +3971,10 @@
         <v>18</v>
       </c>
       <c r="E127" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -3972,10 +3988,10 @@
         <v>18</v>
       </c>
       <c r="E128" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1</v>
       </c>
@@ -3989,10 +4005,10 @@
         <v>18</v>
       </c>
       <c r="E129" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
@@ -4006,10 +4022,10 @@
         <v>18</v>
       </c>
       <c r="E130" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
@@ -4023,10 +4039,10 @@
         <v>18</v>
       </c>
       <c r="E131" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1</v>
       </c>
@@ -4040,10 +4056,10 @@
         <v>18</v>
       </c>
       <c r="E132" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4057,10 +4073,10 @@
         <v>18</v>
       </c>
       <c r="E133" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1</v>
       </c>
@@ -4074,10 +4090,10 @@
         <v>18</v>
       </c>
       <c r="E134" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1</v>
       </c>
@@ -4091,10 +4107,10 @@
         <v>18</v>
       </c>
       <c r="E135" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1</v>
       </c>
@@ -4108,10 +4124,10 @@
         <v>18</v>
       </c>
       <c r="E136" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1</v>
       </c>
@@ -4125,10 +4141,10 @@
         <v>18</v>
       </c>
       <c r="E137" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1</v>
       </c>
@@ -4142,10 +4158,10 @@
         <v>18</v>
       </c>
       <c r="E138" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1</v>
       </c>
@@ -4159,10 +4175,10 @@
         <v>20</v>
       </c>
       <c r="E139" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1</v>
       </c>
@@ -4176,10 +4192,10 @@
         <v>20</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1</v>
       </c>
@@ -4193,10 +4209,10 @@
         <v>20</v>
       </c>
       <c r="E141" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1</v>
       </c>
@@ -4210,10 +4226,10 @@
         <v>20</v>
       </c>
       <c r="E142" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1</v>
       </c>
@@ -4227,10 +4243,10 @@
         <v>20</v>
       </c>
       <c r="E143" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1</v>
       </c>
@@ -4244,10 +4260,10 @@
         <v>20</v>
       </c>
       <c r="E144" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1</v>
       </c>
@@ -4261,10 +4277,10 @@
         <v>20</v>
       </c>
       <c r="E145" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1</v>
       </c>
@@ -4278,10 +4294,10 @@
         <v>20</v>
       </c>
       <c r="E146" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1</v>
       </c>
@@ -4295,10 +4311,10 @@
         <v>20</v>
       </c>
       <c r="E147" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1</v>
       </c>
@@ -4312,10 +4328,10 @@
         <v>20</v>
       </c>
       <c r="E148" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1</v>
       </c>
@@ -4329,10 +4345,10 @@
         <v>20</v>
       </c>
       <c r="E149" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1</v>
       </c>
@@ -4346,10 +4362,10 @@
         <v>20</v>
       </c>
       <c r="E150" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1</v>
       </c>
@@ -4363,10 +4379,10 @@
         <v>20</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1</v>
       </c>
@@ -4380,10 +4396,10 @@
         <v>20</v>
       </c>
       <c r="E152" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1</v>
       </c>
@@ -4397,10 +4413,10 @@
         <v>20</v>
       </c>
       <c r="E153" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1</v>
       </c>
@@ -4414,10 +4430,10 @@
         <v>20</v>
       </c>
       <c r="E154" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1</v>
       </c>
@@ -4431,10 +4447,10 @@
         <v>20</v>
       </c>
       <c r="E155" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1</v>
       </c>
@@ -4448,10 +4464,10 @@
         <v>20</v>
       </c>
       <c r="E156" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1</v>
       </c>
@@ -4465,10 +4481,10 @@
         <v>20</v>
       </c>
       <c r="E157" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1</v>
       </c>
@@ -4482,10 +4498,10 @@
         <v>20</v>
       </c>
       <c r="E158" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1</v>
       </c>
@@ -4499,10 +4515,10 @@
         <v>20</v>
       </c>
       <c r="E159" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1</v>
       </c>
@@ -4516,10 +4532,10 @@
         <v>20</v>
       </c>
       <c r="E160" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1</v>
       </c>
@@ -4533,10 +4549,10 @@
         <v>20</v>
       </c>
       <c r="E161" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1</v>
       </c>
@@ -4550,10 +4566,10 @@
         <v>20</v>
       </c>
       <c r="E162" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1</v>
       </c>
@@ -4567,10 +4583,10 @@
         <v>20</v>
       </c>
       <c r="E163" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1</v>
       </c>
@@ -4584,10 +4600,10 @@
         <v>20</v>
       </c>
       <c r="E164" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1</v>
       </c>
@@ -4601,10 +4617,10 @@
         <v>20</v>
       </c>
       <c r="E165" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1</v>
       </c>
@@ -4618,10 +4634,10 @@
         <v>20</v>
       </c>
       <c r="E166" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1</v>
       </c>
@@ -4635,10 +4651,10 @@
         <v>20</v>
       </c>
       <c r="E167" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1</v>
       </c>
@@ -4652,10 +4668,10 @@
         <v>20</v>
       </c>
       <c r="E168" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1</v>
       </c>
@@ -4669,10 +4685,10 @@
         <v>20</v>
       </c>
       <c r="E169" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1</v>
       </c>
@@ -4686,10 +4702,10 @@
         <v>20</v>
       </c>
       <c r="E170" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1</v>
       </c>
@@ -4703,10 +4719,10 @@
         <v>20</v>
       </c>
       <c r="E171" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1</v>
       </c>
@@ -4720,10 +4736,10 @@
         <v>20</v>
       </c>
       <c r="E172" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1</v>
       </c>
@@ -4737,10 +4753,10 @@
         <v>20</v>
       </c>
       <c r="E173" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1</v>
       </c>
@@ -4754,10 +4770,10 @@
         <v>20</v>
       </c>
       <c r="E174" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1</v>
       </c>
@@ -4771,10 +4787,10 @@
         <v>20</v>
       </c>
       <c r="E175" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1</v>
       </c>
@@ -4788,10 +4804,10 @@
         <v>20</v>
       </c>
       <c r="E176" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1</v>
       </c>
@@ -4805,10 +4821,10 @@
         <v>20</v>
       </c>
       <c r="E177" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1</v>
       </c>
@@ -4822,10 +4838,10 @@
         <v>20</v>
       </c>
       <c r="E178" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1</v>
       </c>
@@ -4839,10 +4855,10 @@
         <v>20</v>
       </c>
       <c r="E179" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1</v>
       </c>
@@ -4856,10 +4872,10 @@
         <v>20</v>
       </c>
       <c r="E180" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1</v>
       </c>
@@ -4873,10 +4889,10 @@
         <v>21</v>
       </c>
       <c r="E181" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1</v>
       </c>
@@ -4890,10 +4906,10 @@
         <v>22</v>
       </c>
       <c r="E182" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1</v>
       </c>
@@ -4907,10 +4923,10 @@
         <v>22</v>
       </c>
       <c r="E183" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1</v>
       </c>
@@ -4924,10 +4940,10 @@
         <v>22</v>
       </c>
       <c r="E184" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1</v>
       </c>
@@ -4941,10 +4957,10 @@
         <v>22</v>
       </c>
       <c r="E185" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1</v>
       </c>
@@ -4958,10 +4974,10 @@
         <v>22</v>
       </c>
       <c r="E186" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1</v>
       </c>
@@ -4975,10 +4991,10 @@
         <v>22</v>
       </c>
       <c r="E187" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1</v>
       </c>
@@ -4992,10 +5008,10 @@
         <v>22</v>
       </c>
       <c r="E188" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1</v>
       </c>
@@ -5009,10 +5025,10 @@
         <v>22</v>
       </c>
       <c r="E189" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1</v>
       </c>
@@ -5026,10 +5042,10 @@
         <v>22</v>
       </c>
       <c r="E190" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1</v>
       </c>
@@ -5043,10 +5059,10 @@
         <v>22</v>
       </c>
       <c r="E191" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1</v>
       </c>
@@ -5060,10 +5076,10 @@
         <v>22</v>
       </c>
       <c r="E192" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1</v>
       </c>
@@ -5077,10 +5093,10 @@
         <v>22</v>
       </c>
       <c r="E193" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1</v>
       </c>
@@ -5094,10 +5110,10 @@
         <v>22</v>
       </c>
       <c r="E194" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1</v>
       </c>
@@ -5111,10 +5127,10 @@
         <v>22</v>
       </c>
       <c r="E195" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1</v>
       </c>
@@ -5128,10 +5144,10 @@
         <v>22</v>
       </c>
       <c r="E196" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1</v>
       </c>
@@ -5145,10 +5161,10 @@
         <v>22</v>
       </c>
       <c r="E197" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1</v>
       </c>
@@ -5162,10 +5178,10 @@
         <v>22</v>
       </c>
       <c r="E198" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1</v>
       </c>
@@ -5179,10 +5195,10 @@
         <v>22</v>
       </c>
       <c r="E199" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1</v>
       </c>
@@ -5196,10 +5212,10 @@
         <v>22</v>
       </c>
       <c r="E200" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
@@ -5213,10 +5229,10 @@
         <v>22</v>
       </c>
       <c r="E201" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1</v>
       </c>
@@ -5230,10 +5246,10 @@
         <v>22</v>
       </c>
       <c r="E202" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1</v>
       </c>
@@ -5247,10 +5263,10 @@
         <v>22</v>
       </c>
       <c r="E203" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1</v>
       </c>
@@ -5264,10 +5280,10 @@
         <v>22</v>
       </c>
       <c r="E204" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1</v>
       </c>
@@ -5281,10 +5297,10 @@
         <v>22</v>
       </c>
       <c r="E205" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1</v>
       </c>
@@ -5298,10 +5314,10 @@
         <v>22</v>
       </c>
       <c r="E206" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1</v>
       </c>
@@ -5315,10 +5331,10 @@
         <v>22</v>
       </c>
       <c r="E207" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1</v>
       </c>
@@ -5332,10 +5348,10 @@
         <v>22</v>
       </c>
       <c r="E208" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1</v>
       </c>
@@ -5349,10 +5365,10 @@
         <v>22</v>
       </c>
       <c r="E209" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1</v>
       </c>
@@ -5366,10 +5382,10 @@
         <v>22</v>
       </c>
       <c r="E210" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1</v>
       </c>
@@ -5383,10 +5399,10 @@
         <v>22</v>
       </c>
       <c r="E211" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1</v>
       </c>
@@ -5400,10 +5416,10 @@
         <v>23</v>
       </c>
       <c r="E212" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1</v>
       </c>
@@ -5417,10 +5433,10 @@
         <v>24</v>
       </c>
       <c r="E213" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1</v>
       </c>
@@ -5434,10 +5450,10 @@
         <v>24</v>
       </c>
       <c r="E214" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1</v>
       </c>
@@ -5451,10 +5467,10 @@
         <v>24</v>
       </c>
       <c r="E215" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1</v>
       </c>
@@ -5468,10 +5484,10 @@
         <v>24</v>
       </c>
       <c r="E216" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1</v>
       </c>
@@ -5485,10 +5501,10 @@
         <v>24</v>
       </c>
       <c r="E217" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1</v>
       </c>
@@ -5502,10 +5518,10 @@
         <v>24</v>
       </c>
       <c r="E218" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1</v>
       </c>
@@ -5519,10 +5535,10 @@
         <v>25</v>
       </c>
       <c r="E219" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1</v>
       </c>
@@ -5536,10 +5552,10 @@
         <v>25</v>
       </c>
       <c r="E220" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1</v>
       </c>
@@ -5553,10 +5569,10 @@
         <v>25</v>
       </c>
       <c r="E221" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1</v>
       </c>
@@ -5570,10 +5586,10 @@
         <v>25</v>
       </c>
       <c r="E222" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1</v>
       </c>
@@ -5587,10 +5603,10 @@
         <v>25</v>
       </c>
       <c r="E223" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1</v>
       </c>
@@ -5604,10 +5620,10 @@
         <v>25</v>
       </c>
       <c r="E224" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1</v>
       </c>
@@ -5621,10 +5637,10 @@
         <v>25</v>
       </c>
       <c r="E225" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1</v>
       </c>
@@ -5638,10 +5654,10 @@
         <v>26</v>
       </c>
       <c r="E226" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1</v>
       </c>
@@ -5655,10 +5671,10 @@
         <v>26</v>
       </c>
       <c r="E227" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1</v>
       </c>
@@ -5672,10 +5688,10 @@
         <v>26</v>
       </c>
       <c r="E228" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1</v>
       </c>
@@ -5689,10 +5705,10 @@
         <v>27</v>
       </c>
       <c r="E229" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1</v>
       </c>
@@ -5706,10 +5722,10 @@
         <v>27</v>
       </c>
       <c r="E230" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1</v>
       </c>
@@ -5723,10 +5739,10 @@
         <v>27</v>
       </c>
       <c r="E231" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1</v>
       </c>
@@ -5740,10 +5756,10 @@
         <v>27</v>
       </c>
       <c r="E232" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1</v>
       </c>
@@ -5757,10 +5773,10 @@
         <v>27</v>
       </c>
       <c r="E233" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1</v>
       </c>
@@ -5774,10 +5790,10 @@
         <v>27</v>
       </c>
       <c r="E234" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1</v>
       </c>
@@ -5791,10 +5807,10 @@
         <v>30</v>
       </c>
       <c r="E235" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1</v>
       </c>
@@ -5808,10 +5824,10 @@
         <v>30</v>
       </c>
       <c r="E236" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1</v>
       </c>
@@ -5825,10 +5841,10 @@
         <v>30</v>
       </c>
       <c r="E237" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1</v>
       </c>
@@ -5842,10 +5858,10 @@
         <v>30</v>
       </c>
       <c r="E238" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1</v>
       </c>
@@ -5859,10 +5875,10 @@
         <v>30</v>
       </c>
       <c r="E239" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>2</v>
       </c>
@@ -5876,10 +5892,10 @@
         <v>30</v>
       </c>
       <c r="E240" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2</v>
       </c>
@@ -5893,10 +5909,10 @@
         <v>30</v>
       </c>
       <c r="E241" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>2</v>
       </c>
@@ -5910,10 +5926,10 @@
         <v>30</v>
       </c>
       <c r="E242" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>2</v>
       </c>
@@ -5927,10 +5943,10 @@
         <v>30</v>
       </c>
       <c r="E243" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>2</v>
       </c>
@@ -5944,10 +5960,10 @@
         <v>30</v>
       </c>
       <c r="E244" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>2</v>
       </c>
@@ -5961,10 +5977,10 @@
         <v>30</v>
       </c>
       <c r="E245" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>2</v>
       </c>
@@ -5978,10 +5994,10 @@
         <v>30</v>
       </c>
       <c r="E246" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>2</v>
       </c>
@@ -5995,10 +6011,10 @@
         <v>30</v>
       </c>
       <c r="E247" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>2</v>
       </c>
@@ -6012,10 +6028,10 @@
         <v>30</v>
       </c>
       <c r="E248" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>2</v>
       </c>
@@ -6029,10 +6045,10 @@
         <v>30</v>
       </c>
       <c r="E249" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>2</v>
       </c>
@@ -6046,10 +6062,10 @@
         <v>30</v>
       </c>
       <c r="E250" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>2</v>
       </c>
@@ -6063,10 +6079,10 @@
         <v>30</v>
       </c>
       <c r="E251" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>2</v>
       </c>
@@ -6080,10 +6096,10 @@
         <v>30</v>
       </c>
       <c r="E252" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>2</v>
       </c>
@@ -6097,10 +6113,10 @@
         <v>30</v>
       </c>
       <c r="E253" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>2</v>
       </c>
@@ -6114,10 +6130,10 @@
         <v>30</v>
       </c>
       <c r="E254" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>2</v>
       </c>
@@ -6131,10 +6147,10 @@
         <v>30</v>
       </c>
       <c r="E255" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>2</v>
       </c>
@@ -6148,10 +6164,10 @@
         <v>30</v>
       </c>
       <c r="E256" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>2</v>
       </c>
@@ -6165,10 +6181,10 @@
         <v>30</v>
       </c>
       <c r="E257" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>2</v>
       </c>
@@ -6182,10 +6198,10 @@
         <v>30</v>
       </c>
       <c r="E258" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2</v>
       </c>
@@ -6199,10 +6215,10 @@
         <v>30</v>
       </c>
       <c r="E259" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2</v>
       </c>
@@ -6216,10 +6232,10 @@
         <v>30</v>
       </c>
       <c r="E260" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2</v>
       </c>
@@ -6233,10 +6249,10 @@
         <v>30</v>
       </c>
       <c r="E261" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>2</v>
       </c>
@@ -6250,10 +6266,10 @@
         <v>31</v>
       </c>
       <c r="E262" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>2</v>
       </c>
@@ -6267,10 +6283,10 @@
         <v>31</v>
       </c>
       <c r="E263" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>2</v>
       </c>
@@ -6284,10 +6300,10 @@
         <v>31</v>
       </c>
       <c r="E264" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>2</v>
       </c>
@@ -6301,10 +6317,10 @@
         <v>31</v>
       </c>
       <c r="E265" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>2</v>
       </c>
@@ -6318,10 +6334,10 @@
         <v>31</v>
       </c>
       <c r="E266" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2</v>
       </c>
@@ -6335,10 +6351,10 @@
         <v>31</v>
       </c>
       <c r="E267" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>2</v>
       </c>
@@ -6352,10 +6368,10 @@
         <v>31</v>
       </c>
       <c r="E268" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>2</v>
       </c>
@@ -6369,10 +6385,10 @@
         <v>31</v>
       </c>
       <c r="E269" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>2</v>
       </c>
@@ -6386,10 +6402,10 @@
         <v>31</v>
       </c>
       <c r="E270" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>2</v>
       </c>
@@ -6403,10 +6419,10 @@
         <v>31</v>
       </c>
       <c r="E271" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>2</v>
       </c>
@@ -6420,10 +6436,10 @@
         <v>33</v>
       </c>
       <c r="E272" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>2</v>
       </c>
@@ -6437,10 +6453,10 @@
         <v>33</v>
       </c>
       <c r="E273" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>2</v>
       </c>
@@ -6454,10 +6470,10 @@
         <v>33</v>
       </c>
       <c r="E274" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>2</v>
       </c>
@@ -6471,10 +6487,10 @@
         <v>33</v>
       </c>
       <c r="E275" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>2</v>
       </c>
@@ -6488,10 +6504,10 @@
         <v>33</v>
       </c>
       <c r="E276" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>2</v>
       </c>
@@ -6505,10 +6521,10 @@
         <v>33</v>
       </c>
       <c r="E277" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>2</v>
       </c>
@@ -6522,10 +6538,10 @@
         <v>33</v>
       </c>
       <c r="E278" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>2</v>
       </c>
@@ -6539,10 +6555,10 @@
         <v>33</v>
       </c>
       <c r="E279" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>2</v>
       </c>
@@ -6556,10 +6572,10 @@
         <v>33</v>
       </c>
       <c r="E280" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>2</v>
       </c>
@@ -6573,10 +6589,10 @@
         <v>33</v>
       </c>
       <c r="E281" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>2</v>
       </c>
@@ -6590,10 +6606,10 @@
         <v>33</v>
       </c>
       <c r="E282" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>2</v>
       </c>
@@ -6607,10 +6623,10 @@
         <v>33</v>
       </c>
       <c r="E283" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>2</v>
       </c>
@@ -6624,10 +6640,10 @@
         <v>33</v>
       </c>
       <c r="E284" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>2</v>
       </c>
@@ -6641,10 +6657,10 @@
         <v>33</v>
       </c>
       <c r="E285" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>2</v>
       </c>
@@ -6658,10 +6674,10 @@
         <v>33</v>
       </c>
       <c r="E286" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>2</v>
       </c>
@@ -6675,10 +6691,10 @@
         <v>33</v>
       </c>
       <c r="E287" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>2</v>
       </c>
@@ -6692,10 +6708,10 @@
         <v>33</v>
       </c>
       <c r="E288" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>2</v>
       </c>
@@ -6709,10 +6725,10 @@
         <v>33</v>
       </c>
       <c r="E289" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>2</v>
       </c>
@@ -6726,10 +6742,10 @@
         <v>33</v>
       </c>
       <c r="E290" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>2</v>
       </c>
@@ -6743,10 +6759,10 @@
         <v>33</v>
       </c>
       <c r="E291" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>2</v>
       </c>
@@ -6760,10 +6776,10 @@
         <v>33</v>
       </c>
       <c r="E292" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>2</v>
       </c>
@@ -6777,10 +6793,10 @@
         <v>33</v>
       </c>
       <c r="E293" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>2</v>
       </c>
@@ -6794,10 +6810,10 @@
         <v>33</v>
       </c>
       <c r="E294" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>2</v>
       </c>
@@ -6811,10 +6827,10 @@
         <v>33</v>
       </c>
       <c r="E295" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>2</v>
       </c>
@@ -6828,10 +6844,10 @@
         <v>33</v>
       </c>
       <c r="E296" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>2</v>
       </c>
@@ -6845,10 +6861,10 @@
         <v>33</v>
       </c>
       <c r="E297" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>2</v>
       </c>
@@ -6862,10 +6878,10 @@
         <v>33</v>
       </c>
       <c r="E298" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>2</v>
       </c>
@@ -6879,10 +6895,10 @@
         <v>33</v>
       </c>
       <c r="E299" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>2</v>
       </c>
@@ -6896,10 +6912,10 @@
         <v>33</v>
       </c>
       <c r="E300" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>2</v>
       </c>
@@ -6913,10 +6929,10 @@
         <v>33</v>
       </c>
       <c r="E301" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>2</v>
       </c>
@@ -6930,10 +6946,10 @@
         <v>33</v>
       </c>
       <c r="E302" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2</v>
       </c>
@@ -6947,10 +6963,10 @@
         <v>33</v>
       </c>
       <c r="E303" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>2</v>
       </c>
@@ -6964,10 +6980,10 @@
         <v>33</v>
       </c>
       <c r="E304" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>2</v>
       </c>
@@ -6981,10 +6997,10 @@
         <v>33</v>
       </c>
       <c r="E305" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>2</v>
       </c>
@@ -6998,10 +7014,10 @@
         <v>33</v>
       </c>
       <c r="E306" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>2</v>
       </c>
@@ -7015,10 +7031,10 @@
         <v>33</v>
       </c>
       <c r="E307" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>2</v>
       </c>
@@ -7032,10 +7048,10 @@
         <v>33</v>
       </c>
       <c r="E308" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>2</v>
       </c>
@@ -7049,10 +7065,10 @@
         <v>33</v>
       </c>
       <c r="E309" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>2</v>
       </c>
@@ -7066,10 +7082,10 @@
         <v>33</v>
       </c>
       <c r="E310" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>2</v>
       </c>
@@ -7083,10 +7099,10 @@
         <v>33</v>
       </c>
       <c r="E311" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>2</v>
       </c>
@@ -7100,10 +7116,10 @@
         <v>33</v>
       </c>
       <c r="E312" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>2</v>
       </c>
@@ -7117,10 +7133,10 @@
         <v>34</v>
       </c>
       <c r="E313" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>2</v>
       </c>
@@ -7134,10 +7150,10 @@
         <v>35</v>
       </c>
       <c r="E314" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>2</v>
       </c>
@@ -7151,10 +7167,10 @@
         <v>35</v>
       </c>
       <c r="E315" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>2</v>
       </c>
@@ -7168,10 +7184,10 @@
         <v>35</v>
       </c>
       <c r="E316" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>2</v>
       </c>
@@ -7185,10 +7201,10 @@
         <v>35</v>
       </c>
       <c r="E317" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>2</v>
       </c>
@@ -7202,10 +7218,10 @@
         <v>35</v>
       </c>
       <c r="E318" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>2</v>
       </c>
@@ -7219,10 +7235,10 @@
         <v>35</v>
       </c>
       <c r="E319" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>2</v>
       </c>
@@ -7236,10 +7252,10 @@
         <v>36</v>
       </c>
       <c r="E320" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>2</v>
       </c>
@@ -7253,10 +7269,10 @@
         <v>36</v>
       </c>
       <c r="E321" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>2</v>
       </c>
@@ -7270,10 +7286,10 @@
         <v>36</v>
       </c>
       <c r="E322" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>2</v>
       </c>
@@ -7287,10 +7303,10 @@
         <v>36</v>
       </c>
       <c r="E323" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>2</v>
       </c>
@@ -7304,10 +7320,10 @@
         <v>36</v>
       </c>
       <c r="E324" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>2</v>
       </c>
@@ -7321,10 +7337,10 @@
         <v>36</v>
       </c>
       <c r="E325" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>2</v>
       </c>
@@ -7338,10 +7354,10 @@
         <v>36</v>
       </c>
       <c r="E326" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>2</v>
       </c>
@@ -7355,10 +7371,10 @@
         <v>37</v>
       </c>
       <c r="E327" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>2</v>
       </c>
@@ -7372,10 +7388,10 @@
         <v>37</v>
       </c>
       <c r="E328" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>2</v>
       </c>
@@ -7389,10 +7405,10 @@
         <v>37</v>
       </c>
       <c r="E329" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>2</v>
       </c>
@@ -7406,10 +7422,10 @@
         <v>37</v>
       </c>
       <c r="E330" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>2</v>
       </c>
@@ -7423,10 +7439,10 @@
         <v>37</v>
       </c>
       <c r="E331" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>2</v>
       </c>
@@ -7440,10 +7456,10 @@
         <v>37</v>
       </c>
       <c r="E332" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>2</v>
       </c>
@@ -7457,10 +7473,10 @@
         <v>37</v>
       </c>
       <c r="E333" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>2</v>
       </c>
@@ -7474,10 +7490,10 @@
         <v>37</v>
       </c>
       <c r="E334" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>2</v>
       </c>
@@ -7491,10 +7507,10 @@
         <v>38</v>
       </c>
       <c r="E335" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>2</v>
       </c>
@@ -7508,10 +7524,10 @@
         <v>38</v>
       </c>
       <c r="E336" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>2</v>
       </c>
@@ -7525,10 +7541,10 @@
         <v>38</v>
       </c>
       <c r="E337" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>2</v>
       </c>
@@ -7542,10 +7558,10 @@
         <v>38</v>
       </c>
       <c r="E338" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>2</v>
       </c>
@@ -7559,10 +7575,10 @@
         <v>38</v>
       </c>
       <c r="E339" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>2</v>
       </c>
@@ -7576,10 +7592,10 @@
         <v>40</v>
       </c>
       <c r="E340" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>2</v>
       </c>
@@ -7593,10 +7609,10 @@
         <v>40</v>
       </c>
       <c r="E341" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>2</v>
       </c>
@@ -7610,10 +7626,10 @@
         <v>40</v>
       </c>
       <c r="E342" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>2</v>
       </c>
@@ -7627,10 +7643,10 @@
         <v>40</v>
       </c>
       <c r="E343" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>2</v>
       </c>
@@ -7644,10 +7660,10 @@
         <v>40</v>
       </c>
       <c r="E344" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>2</v>
       </c>
@@ -7661,10 +7677,10 @@
         <v>41</v>
       </c>
       <c r="E345" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>2</v>
       </c>
@@ -7678,10 +7694,10 @@
         <v>41</v>
       </c>
       <c r="E346" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>2</v>
       </c>
@@ -7695,10 +7711,10 @@
         <v>41</v>
       </c>
       <c r="E347" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>2</v>
       </c>
@@ -7712,10 +7728,10 @@
         <v>41</v>
       </c>
       <c r="E348" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>2</v>
       </c>
@@ -7729,10 +7745,10 @@
         <v>41</v>
       </c>
       <c r="E349" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>2</v>
       </c>
@@ -7746,10 +7762,10 @@
         <v>41</v>
       </c>
       <c r="E350" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>2</v>
       </c>
@@ -7763,10 +7779,10 @@
         <v>41</v>
       </c>
       <c r="E351" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>2</v>
       </c>
@@ -7780,10 +7796,10 @@
         <v>41</v>
       </c>
       <c r="E352" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>2</v>
       </c>
@@ -7797,10 +7813,10 @@
         <v>41</v>
       </c>
       <c r="E353" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>2</v>
       </c>
@@ -7814,10 +7830,10 @@
         <v>41</v>
       </c>
       <c r="E354" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>2</v>
       </c>
@@ -7831,10 +7847,10 @@
         <v>41</v>
       </c>
       <c r="E355" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>2</v>
       </c>
@@ -7848,10 +7864,10 @@
         <v>41</v>
       </c>
       <c r="E356" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>2</v>
       </c>
@@ -7865,10 +7881,10 @@
         <v>43</v>
       </c>
       <c r="E357" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>2</v>
       </c>
@@ -7882,10 +7898,10 @@
         <v>43</v>
       </c>
       <c r="E358" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>2</v>
       </c>
@@ -7899,10 +7915,10 @@
         <v>43</v>
       </c>
       <c r="E359" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>2</v>
       </c>
@@ -7916,10 +7932,10 @@
         <v>43</v>
       </c>
       <c r="E360" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>2</v>
       </c>
@@ -7933,10 +7949,10 @@
         <v>43</v>
       </c>
       <c r="E361" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>2</v>
       </c>
@@ -7950,10 +7966,10 @@
         <v>43</v>
       </c>
       <c r="E362" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>2</v>
       </c>
@@ -7967,10 +7983,10 @@
         <v>43</v>
       </c>
       <c r="E363" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>2</v>
       </c>
@@ -7984,10 +8000,10 @@
         <v>43</v>
       </c>
       <c r="E364" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>2</v>
       </c>
@@ -8001,10 +8017,10 @@
         <v>43</v>
       </c>
       <c r="E365" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>2</v>
       </c>
@@ -8018,10 +8034,10 @@
         <v>43</v>
       </c>
       <c r="E366" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>2</v>
       </c>
@@ -8035,10 +8051,10 @@
         <v>43</v>
       </c>
       <c r="E367" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>2</v>
       </c>
@@ -8052,10 +8068,10 @@
         <v>43</v>
       </c>
       <c r="E368" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>2</v>
       </c>
@@ -8069,10 +8085,10 @@
         <v>43</v>
       </c>
       <c r="E369" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>2</v>
       </c>
@@ -8086,10 +8102,10 @@
         <v>43</v>
       </c>
       <c r="E370" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>2</v>
       </c>
@@ -8103,10 +8119,10 @@
         <v>43</v>
       </c>
       <c r="E371" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>2</v>
       </c>
@@ -8120,10 +8136,10 @@
         <v>43</v>
       </c>
       <c r="E372" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>2</v>
       </c>
@@ -8137,10 +8153,10 @@
         <v>43</v>
       </c>
       <c r="E373" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>2</v>
       </c>
@@ -8154,10 +8170,10 @@
         <v>43</v>
       </c>
       <c r="E374" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>2</v>
       </c>
@@ -8171,10 +8187,10 @@
         <v>43</v>
       </c>
       <c r="E375" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>2</v>
       </c>
@@ -8188,10 +8204,10 @@
         <v>43</v>
       </c>
       <c r="E376" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>2</v>
       </c>
@@ -8205,10 +8221,10 @@
         <v>43</v>
       </c>
       <c r="E377" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>2</v>
       </c>
@@ -8222,10 +8238,10 @@
         <v>43</v>
       </c>
       <c r="E378" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>2</v>
       </c>
@@ -8239,10 +8255,10 @@
         <v>43</v>
       </c>
       <c r="E379" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>2</v>
       </c>
@@ -8256,10 +8272,10 @@
         <v>43</v>
       </c>
       <c r="E380" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>2</v>
       </c>
@@ -8273,10 +8289,10 @@
         <v>43</v>
       </c>
       <c r="E381" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>2</v>
       </c>
@@ -8290,10 +8306,10 @@
         <v>43</v>
       </c>
       <c r="E382" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>2</v>
       </c>
@@ -8307,10 +8323,10 @@
         <v>43</v>
       </c>
       <c r="E383" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>2</v>
       </c>
@@ -8324,10 +8340,10 @@
         <v>43</v>
       </c>
       <c r="E384" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>2</v>
       </c>
@@ -8341,10 +8357,10 @@
         <v>43</v>
       </c>
       <c r="E385" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>2</v>
       </c>
@@ -8358,10 +8374,10 @@
         <v>43</v>
       </c>
       <c r="E386" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>2</v>
       </c>
@@ -8375,10 +8391,10 @@
         <v>43</v>
       </c>
       <c r="E387" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>2</v>
       </c>
@@ -8392,10 +8408,10 @@
         <v>43</v>
       </c>
       <c r="E388" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>2</v>
       </c>
@@ -8409,10 +8425,10 @@
         <v>43</v>
       </c>
       <c r="E389" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>2</v>
       </c>
@@ -8426,10 +8442,10 @@
         <v>43</v>
       </c>
       <c r="E390" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>2</v>
       </c>
@@ -8443,10 +8459,10 @@
         <v>43</v>
       </c>
       <c r="E391" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>2</v>
       </c>
@@ -8460,10 +8476,10 @@
         <v>43</v>
       </c>
       <c r="E392" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>2</v>
       </c>
@@ -8477,10 +8493,10 @@
         <v>43</v>
       </c>
       <c r="E393" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>2</v>
       </c>
@@ -8494,10 +8510,10 @@
         <v>43</v>
       </c>
       <c r="E394" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>2</v>
       </c>
@@ -8511,10 +8527,10 @@
         <v>43</v>
       </c>
       <c r="E395" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>2</v>
       </c>
@@ -8528,10 +8544,10 @@
         <v>43</v>
       </c>
       <c r="E396" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>2</v>
       </c>
@@ -8545,10 +8561,10 @@
         <v>43</v>
       </c>
       <c r="E397" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>2</v>
       </c>
@@ -8562,10 +8578,10 @@
         <v>43</v>
       </c>
       <c r="E398" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>2</v>
       </c>
@@ -8579,10 +8595,10 @@
         <v>43</v>
       </c>
       <c r="E399" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>2</v>
       </c>
@@ -8596,10 +8612,10 @@
         <v>45</v>
       </c>
       <c r="E400" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>2</v>
       </c>
@@ -8613,10 +8629,10 @@
         <v>45</v>
       </c>
       <c r="E401" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>2</v>
       </c>
@@ -8630,10 +8646,10 @@
         <v>45</v>
       </c>
       <c r="E402" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>2</v>
       </c>
@@ -8647,10 +8663,10 @@
         <v>45</v>
       </c>
       <c r="E403" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>2</v>
       </c>
@@ -8664,10 +8680,10 @@
         <v>45</v>
       </c>
       <c r="E404" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>2</v>
       </c>
@@ -8681,10 +8697,10 @@
         <v>45</v>
       </c>
       <c r="E405" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>2</v>
       </c>
@@ -8698,10 +8714,10 @@
         <v>45</v>
       </c>
       <c r="E406" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>2</v>
       </c>
@@ -8715,10 +8731,10 @@
         <v>45</v>
       </c>
       <c r="E407" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>2</v>
       </c>
@@ -8732,10 +8748,10 @@
         <v>45</v>
       </c>
       <c r="E408" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>2</v>
       </c>
@@ -8749,10 +8765,10 @@
         <v>45</v>
       </c>
       <c r="E409" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>2</v>
       </c>
@@ -8766,10 +8782,10 @@
         <v>45</v>
       </c>
       <c r="E410" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>2</v>
       </c>
@@ -8783,10 +8799,10 @@
         <v>45</v>
       </c>
       <c r="E411" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>2</v>
       </c>
@@ -8800,10 +8816,10 @@
         <v>45</v>
       </c>
       <c r="E412" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>2</v>
       </c>
@@ -8817,10 +8833,10 @@
         <v>45</v>
       </c>
       <c r="E413" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>2</v>
       </c>
@@ -8834,10 +8850,10 @@
         <v>45</v>
       </c>
       <c r="E414" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>2</v>
       </c>
@@ -8851,10 +8867,10 @@
         <v>45</v>
       </c>
       <c r="E415" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>2</v>
       </c>
@@ -8868,10 +8884,10 @@
         <v>45</v>
       </c>
       <c r="E416" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>2</v>
       </c>
@@ -8885,10 +8901,10 @@
         <v>45</v>
       </c>
       <c r="E417" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>2</v>
       </c>
@@ -8902,10 +8918,10 @@
         <v>45</v>
       </c>
       <c r="E418" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>2</v>
       </c>
@@ -8919,10 +8935,10 @@
         <v>45</v>
       </c>
       <c r="E419" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>2</v>
       </c>
@@ -8936,10 +8952,10 @@
         <v>45</v>
       </c>
       <c r="E420" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>2</v>
       </c>
@@ -8953,10 +8969,10 @@
         <v>45</v>
       </c>
       <c r="E421" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>2</v>
       </c>
@@ -8970,10 +8986,10 @@
         <v>45</v>
       </c>
       <c r="E422" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>2</v>
       </c>
@@ -8987,10 +9003,10 @@
         <v>45</v>
       </c>
       <c r="E423" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>2</v>
       </c>
@@ -9004,10 +9020,10 @@
         <v>46</v>
       </c>
       <c r="E424" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>2</v>
       </c>
@@ -9021,10 +9037,10 @@
         <v>47</v>
       </c>
       <c r="E425" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>2</v>
       </c>
@@ -9038,10 +9054,10 @@
         <v>47</v>
       </c>
       <c r="E426" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>2</v>
       </c>
@@ -9055,10 +9071,10 @@
         <v>47</v>
       </c>
       <c r="E427" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>2</v>
       </c>
@@ -9072,10 +9088,10 @@
         <v>47</v>
       </c>
       <c r="E428" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>2</v>
       </c>
@@ -9089,10 +9105,10 @@
         <v>47</v>
       </c>
       <c r="E429" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>2</v>
       </c>
@@ -9106,10 +9122,10 @@
         <v>47</v>
       </c>
       <c r="E430" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>2</v>
       </c>
@@ -9123,10 +9139,10 @@
         <v>47</v>
       </c>
       <c r="E431" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>2</v>
       </c>
@@ -9140,10 +9156,10 @@
         <v>47</v>
       </c>
       <c r="E432" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>2</v>
       </c>
@@ -9157,10 +9173,10 @@
         <v>47</v>
       </c>
       <c r="E433" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>2</v>
       </c>
@@ -9174,10 +9190,10 @@
         <v>47</v>
       </c>
       <c r="E434" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>2</v>
       </c>
@@ -9191,10 +9207,10 @@
         <v>47</v>
       </c>
       <c r="E435" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>2</v>
       </c>
@@ -9208,10 +9224,10 @@
         <v>47</v>
       </c>
       <c r="E436" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>2</v>
       </c>
@@ -9225,10 +9241,10 @@
         <v>49</v>
       </c>
       <c r="E437" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>2</v>
       </c>
@@ -9242,10 +9258,10 @@
         <v>49</v>
       </c>
       <c r="E438" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>2</v>
       </c>
@@ -9259,10 +9275,10 @@
         <v>49</v>
       </c>
       <c r="E439" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>2</v>
       </c>
@@ -9276,10 +9292,10 @@
         <v>49</v>
       </c>
       <c r="E440" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>2</v>
       </c>
@@ -9293,10 +9309,10 @@
         <v>52</v>
       </c>
       <c r="E441" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>2</v>
       </c>
@@ -9310,10 +9326,10 @@
         <v>52</v>
       </c>
       <c r="E442" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>2</v>
       </c>
@@ -9327,10 +9343,10 @@
         <v>52</v>
       </c>
       <c r="E443" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>2</v>
       </c>
@@ -9344,10 +9360,10 @@
         <v>52</v>
       </c>
       <c r="E444" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>2</v>
       </c>
@@ -9361,10 +9377,10 @@
         <v>52</v>
       </c>
       <c r="E445" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>2</v>
       </c>
@@ -9378,10 +9394,10 @@
         <v>52</v>
       </c>
       <c r="E446" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>2</v>
       </c>
@@ -9395,10 +9411,10 @@
         <v>52</v>
       </c>
       <c r="E447" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>2</v>
       </c>
@@ -9412,10 +9428,10 @@
         <v>52</v>
       </c>
       <c r="E448" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>2</v>
       </c>
@@ -9429,10 +9445,10 @@
         <v>52</v>
       </c>
       <c r="E449" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>2</v>
       </c>
@@ -9446,10 +9462,10 @@
         <v>52</v>
       </c>
       <c r="E450" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>2</v>
       </c>
@@ -9463,10 +9479,10 @@
         <v>52</v>
       </c>
       <c r="E451" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>2</v>
       </c>
@@ -9480,10 +9496,10 @@
         <v>52</v>
       </c>
       <c r="E452" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>2</v>
       </c>
@@ -9497,10 +9513,10 @@
         <v>52</v>
       </c>
       <c r="E453" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>2</v>
       </c>
@@ -9514,10 +9530,10 @@
         <v>52</v>
       </c>
       <c r="E454" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>2</v>
       </c>
@@ -9531,10 +9547,10 @@
         <v>52</v>
       </c>
       <c r="E455" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>2</v>
       </c>
@@ -9548,10 +9564,10 @@
         <v>52</v>
       </c>
       <c r="E456" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>2</v>
       </c>
@@ -9565,10 +9581,10 @@
         <v>52</v>
       </c>
       <c r="E457" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>2</v>
       </c>
@@ -9582,10 +9598,10 @@
         <v>52</v>
       </c>
       <c r="E458" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>2</v>
       </c>
@@ -9599,10 +9615,10 @@
         <v>52</v>
       </c>
       <c r="E459" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>2</v>
       </c>
@@ -9616,10 +9632,10 @@
         <v>52</v>
       </c>
       <c r="E460" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>2</v>
       </c>
@@ -9633,10 +9649,10 @@
         <v>52</v>
       </c>
       <c r="E461" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>2</v>
       </c>
@@ -9650,10 +9666,10 @@
         <v>52</v>
       </c>
       <c r="E462" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="463" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>2</v>
       </c>
@@ -9667,10 +9683,10 @@
         <v>55</v>
       </c>
       <c r="E463" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>2</v>
       </c>
@@ -9684,10 +9700,10 @@
         <v>55</v>
       </c>
       <c r="E464" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>2</v>
       </c>
@@ -9701,10 +9717,10 @@
         <v>55</v>
       </c>
       <c r="E465" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>2</v>
       </c>
@@ -9718,10 +9734,10 @@
         <v>55</v>
       </c>
       <c r="E466" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="467" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>2</v>
       </c>
@@ -9735,10 +9751,10 @@
         <v>55</v>
       </c>
       <c r="E467" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>2</v>
       </c>
@@ -9752,10 +9768,10 @@
         <v>55</v>
       </c>
       <c r="E468" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>2</v>
       </c>
@@ -9769,10 +9785,10 @@
         <v>55</v>
       </c>
       <c r="E469" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="470" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>2</v>
       </c>
@@ -9786,10 +9802,10 @@
         <v>55</v>
       </c>
       <c r="E470" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>2</v>
       </c>
@@ -9803,10 +9819,10 @@
         <v>55</v>
       </c>
       <c r="E471" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>2</v>
       </c>
@@ -9820,10 +9836,10 @@
         <v>55</v>
       </c>
       <c r="E472" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>2</v>
       </c>
@@ -9837,10 +9853,10 @@
         <v>55</v>
       </c>
       <c r="E473" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="474" spans="1:5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>2</v>
       </c>
@@ -9854,10 +9870,10 @@
         <v>55</v>
       </c>
       <c r="E474" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="475" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>2</v>
       </c>
@@ -9871,10 +9887,10 @@
         <v>55</v>
       </c>
       <c r="E475" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>2</v>
       </c>
@@ -9888,10 +9904,10 @@
         <v>55</v>
       </c>
       <c r="E476" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>2</v>
       </c>
@@ -9905,10 +9921,10 @@
         <v>55</v>
       </c>
       <c r="E477" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>2</v>
       </c>
@@ -9922,10 +9938,10 @@
         <v>55</v>
       </c>
       <c r="E478" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>2</v>
       </c>
@@ -9939,10 +9955,10 @@
         <v>55</v>
       </c>
       <c r="E479" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="480" spans="1:5">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>2</v>
       </c>
@@ -9956,10 +9972,10 @@
         <v>55</v>
       </c>
       <c r="E480" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>2</v>
       </c>
@@ -9973,10 +9989,10 @@
         <v>55</v>
       </c>
       <c r="E481" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>2</v>
       </c>
@@ -9990,10 +10006,10 @@
         <v>55</v>
       </c>
       <c r="E482" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>2</v>
       </c>
@@ -10007,10 +10023,10 @@
         <v>55</v>
       </c>
       <c r="E483" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>2</v>
       </c>
@@ -10024,10 +10040,10 @@
         <v>55</v>
       </c>
       <c r="E484" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="485" spans="1:5">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>2</v>
       </c>
@@ -10041,10 +10057,10 @@
         <v>55</v>
       </c>
       <c r="E485" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="486" spans="1:5">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>2</v>
       </c>
@@ -10058,10 +10074,10 @@
         <v>55</v>
       </c>
       <c r="E486" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="487" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>2</v>
       </c>
@@ -10075,10 +10091,10 @@
         <v>55</v>
       </c>
       <c r="E487" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="488" spans="1:5">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>2</v>
       </c>
@@ -10092,10 +10108,10 @@
         <v>55</v>
       </c>
       <c r="E488" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="489" spans="1:5">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>2</v>
       </c>
@@ -10109,10 +10125,10 @@
         <v>55</v>
       </c>
       <c r="E489" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="490" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>2</v>
       </c>
@@ -10126,10 +10142,10 @@
         <v>55</v>
       </c>
       <c r="E490" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="491" spans="1:5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>2</v>
       </c>
@@ -10143,10 +10159,10 @@
         <v>55</v>
       </c>
       <c r="E491" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="492" spans="1:5">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>2</v>
       </c>
@@ -10160,10 +10176,10 @@
         <v>55</v>
       </c>
       <c r="E492" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="493" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>2</v>
       </c>
@@ -10177,10 +10193,10 @@
         <v>55</v>
       </c>
       <c r="E493" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="494" spans="1:5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>2</v>
       </c>
@@ -10194,10 +10210,10 @@
         <v>55</v>
       </c>
       <c r="E494" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="495" spans="1:5">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>2</v>
       </c>
@@ -10211,10 +10227,10 @@
         <v>55</v>
       </c>
       <c r="E495" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="496" spans="1:5">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>2</v>
       </c>
@@ -10228,10 +10244,10 @@
         <v>55</v>
       </c>
       <c r="E496" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="497" spans="1:5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>2</v>
       </c>
@@ -10245,10 +10261,10 @@
         <v>55</v>
       </c>
       <c r="E497" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="498" spans="1:5">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>2</v>
       </c>
@@ -10262,10 +10278,10 @@
         <v>55</v>
       </c>
       <c r="E498" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="499" spans="1:5">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>2</v>
       </c>
@@ -10279,10 +10295,10 @@
         <v>55</v>
       </c>
       <c r="E499" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="500" spans="1:5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>2</v>
       </c>
@@ -10296,10 +10312,10 @@
         <v>55</v>
       </c>
       <c r="E500" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="501" spans="1:5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>2</v>
       </c>
@@ -10313,10 +10329,10 @@
         <v>55</v>
       </c>
       <c r="E501" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="502" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>2</v>
       </c>
@@ -10330,10 +10346,10 @@
         <v>55</v>
       </c>
       <c r="E502" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="503" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>2</v>
       </c>
@@ -10347,10 +10363,10 @@
         <v>57</v>
       </c>
       <c r="E503" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="504" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>2</v>
       </c>
@@ -10364,10 +10380,10 @@
         <v>57</v>
       </c>
       <c r="E504" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="505" spans="1:5">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>2</v>
       </c>
@@ -10381,10 +10397,10 @@
         <v>57</v>
       </c>
       <c r="E505" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="506" spans="1:5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>2</v>
       </c>
@@ -10398,10 +10414,10 @@
         <v>57</v>
       </c>
       <c r="E506" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="507" spans="1:5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>2</v>
       </c>
@@ -10415,10 +10431,10 @@
         <v>57</v>
       </c>
       <c r="E507" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="508" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>2</v>
       </c>
@@ -10432,10 +10448,10 @@
         <v>57</v>
       </c>
       <c r="E508" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="509" spans="1:5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>2</v>
       </c>
@@ -10449,10 +10465,10 @@
         <v>57</v>
       </c>
       <c r="E509" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="510" spans="1:5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>2</v>
       </c>
@@ -10466,10 +10482,10 @@
         <v>57</v>
       </c>
       <c r="E510" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="511" spans="1:5">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>2</v>
       </c>
@@ -10483,10 +10499,10 @@
         <v>57</v>
       </c>
       <c r="E511" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="512" spans="1:5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>2</v>
       </c>
@@ -10500,10 +10516,10 @@
         <v>57</v>
       </c>
       <c r="E512" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="513" spans="1:5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>2</v>
       </c>
@@ -10517,10 +10533,10 @@
         <v>57</v>
       </c>
       <c r="E513" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="514" spans="1:5">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>2</v>
       </c>
@@ -10534,10 +10550,10 @@
         <v>57</v>
       </c>
       <c r="E514" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="515" spans="1:5">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>2</v>
       </c>
@@ -10551,10 +10567,10 @@
         <v>57</v>
       </c>
       <c r="E515" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="516" spans="1:5">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>2</v>
       </c>
@@ -10568,10 +10584,10 @@
         <v>57</v>
       </c>
       <c r="E516" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="517" spans="1:5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>2</v>
       </c>
@@ -10585,10 +10601,10 @@
         <v>57</v>
       </c>
       <c r="E517" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="518" spans="1:5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>2</v>
       </c>
@@ -10602,10 +10618,10 @@
         <v>57</v>
       </c>
       <c r="E518" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="519" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>2</v>
       </c>
@@ -10619,10 +10635,10 @@
         <v>57</v>
       </c>
       <c r="E519" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="520" spans="1:5">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>2</v>
       </c>
@@ -10636,10 +10652,10 @@
         <v>58</v>
       </c>
       <c r="E520" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="521" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>2</v>
       </c>
@@ -10653,10 +10669,10 @@
         <v>58</v>
       </c>
       <c r="E521" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="522" spans="1:5">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>2</v>
       </c>
@@ -10670,10 +10686,10 @@
         <v>58</v>
       </c>
       <c r="E522" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="523" spans="1:5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>2</v>
       </c>
@@ -10687,10 +10703,10 @@
         <v>58</v>
       </c>
       <c r="E523" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="524" spans="1:5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>2</v>
       </c>
@@ -10704,10 +10720,10 @@
         <v>58</v>
       </c>
       <c r="E524" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="525" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>2</v>
       </c>
@@ -10721,10 +10737,10 @@
         <v>58</v>
       </c>
       <c r="E525" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="526" spans="1:5">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>2</v>
       </c>
@@ -10738,10 +10754,10 @@
         <v>58</v>
       </c>
       <c r="E526" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="527" spans="1:5">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>2</v>
       </c>
@@ -10755,10 +10771,10 @@
         <v>58</v>
       </c>
       <c r="E527" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="528" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>2</v>
       </c>
@@ -10772,10 +10788,10 @@
         <v>58</v>
       </c>
       <c r="E528" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="529" spans="1:5">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>2</v>
       </c>
@@ -10789,10 +10805,10 @@
         <v>58</v>
       </c>
       <c r="E529" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="530" spans="1:5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>2</v>
       </c>
@@ -10806,10 +10822,10 @@
         <v>58</v>
       </c>
       <c r="E530" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="531" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>2</v>
       </c>
@@ -10823,10 +10839,10 @@
         <v>58</v>
       </c>
       <c r="E531" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="532" spans="1:5">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>1</v>
       </c>
@@ -10840,10 +10856,10 @@
         <v>60</v>
       </c>
       <c r="E532" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="533" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>1</v>
       </c>
@@ -10857,10 +10873,10 @@
         <v>60</v>
       </c>
       <c r="E533" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="534" spans="1:5">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>1</v>
       </c>
@@ -10874,10 +10890,10 @@
         <v>60</v>
       </c>
       <c r="E534" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="535" spans="1:5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>1</v>
       </c>
@@ -10891,10 +10907,10 @@
         <v>60</v>
       </c>
       <c r="E535" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="536" spans="1:5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>1</v>
       </c>
@@ -10908,10 +10924,10 @@
         <v>60</v>
       </c>
       <c r="E536" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="537" spans="1:5">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>1</v>
       </c>
@@ -10925,10 +10941,10 @@
         <v>60</v>
       </c>
       <c r="E537" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="538" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>1</v>
       </c>
@@ -10942,10 +10958,10 @@
         <v>60</v>
       </c>
       <c r="E538" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="539" spans="1:5">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>1</v>
       </c>
@@ -10959,10 +10975,10 @@
         <v>60</v>
       </c>
       <c r="E539" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="540" spans="1:5">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>1</v>
       </c>
@@ -10976,10 +10992,10 @@
         <v>62</v>
       </c>
       <c r="E540" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="541" spans="1:5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>1</v>
       </c>
@@ -10993,10 +11009,10 @@
         <v>62</v>
       </c>
       <c r="E541" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="542" spans="1:5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>1</v>
       </c>
@@ -11010,10 +11026,10 @@
         <v>62</v>
       </c>
       <c r="E542" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="543" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>1</v>
       </c>
@@ -11027,10 +11043,10 @@
         <v>62</v>
       </c>
       <c r="E543" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="544" spans="1:5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>1</v>
       </c>
@@ -11044,10 +11060,10 @@
         <v>62</v>
       </c>
       <c r="E544" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="545" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>1</v>
       </c>
@@ -11061,10 +11077,10 @@
         <v>62</v>
       </c>
       <c r="E545" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="546" spans="1:5">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>1</v>
       </c>
@@ -11078,10 +11094,10 @@
         <v>62</v>
       </c>
       <c r="E546" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="547" spans="1:5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>1</v>
       </c>
@@ -11095,10 +11111,10 @@
         <v>62</v>
       </c>
       <c r="E547" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="548" spans="1:5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>1</v>
       </c>
@@ -11112,10 +11128,10 @@
         <v>62</v>
       </c>
       <c r="E548" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="549" spans="1:5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>1</v>
       </c>
@@ -11129,10 +11145,10 @@
         <v>62</v>
       </c>
       <c r="E549" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="550" spans="1:5">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>1</v>
       </c>
@@ -11146,10 +11162,10 @@
         <v>62</v>
       </c>
       <c r="E550" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="551" spans="1:5">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>1</v>
       </c>
@@ -11163,10 +11179,10 @@
         <v>65</v>
       </c>
       <c r="E551" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="552" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>1</v>
       </c>
@@ -11180,10 +11196,10 @@
         <v>65</v>
       </c>
       <c r="E552" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="553" spans="1:5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>1</v>
       </c>
@@ -11197,10 +11213,10 @@
         <v>65</v>
       </c>
       <c r="E553" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="554" spans="1:5">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>1</v>
       </c>
@@ -11214,10 +11230,10 @@
         <v>65</v>
       </c>
       <c r="E554" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="555" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>1</v>
       </c>
@@ -11231,10 +11247,10 @@
         <v>67</v>
       </c>
       <c r="E555" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="556" spans="1:5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>1</v>
       </c>
@@ -11248,10 +11264,10 @@
         <v>67</v>
       </c>
       <c r="E556" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="557" spans="1:5">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>1</v>
       </c>
@@ -11265,10 +11281,10 @@
         <v>67</v>
       </c>
       <c r="E557" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="558" spans="1:5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>1</v>
       </c>
@@ -11282,10 +11298,10 @@
         <v>67</v>
       </c>
       <c r="E558" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="559" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>1</v>
       </c>
@@ -11299,10 +11315,10 @@
         <v>67</v>
       </c>
       <c r="E559" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="560" spans="1:5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>1</v>
       </c>
@@ -11316,10 +11332,10 @@
         <v>67</v>
       </c>
       <c r="E560" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="561" spans="1:5">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>1</v>
       </c>
@@ -11333,10 +11349,10 @@
         <v>67</v>
       </c>
       <c r="E561" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="562" spans="1:5">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>1</v>
       </c>
@@ -11350,10 +11366,10 @@
         <v>69</v>
       </c>
       <c r="E562" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="563" spans="1:5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>1</v>
       </c>
@@ -11367,10 +11383,10 @@
         <v>69</v>
       </c>
       <c r="E563" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="564" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>1</v>
       </c>
@@ -11384,10 +11400,10 @@
         <v>69</v>
       </c>
       <c r="E564" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="565" spans="1:5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>1</v>
       </c>
@@ -11401,10 +11417,10 @@
         <v>69</v>
       </c>
       <c r="E565" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="566" spans="1:5">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>1</v>
       </c>
@@ -11418,10 +11434,10 @@
         <v>69</v>
       </c>
       <c r="E566" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="567" spans="1:5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>1</v>
       </c>
@@ -11435,10 +11451,10 @@
         <v>69</v>
       </c>
       <c r="E567" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="568" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>1</v>
       </c>
@@ -11452,10 +11468,10 @@
         <v>69</v>
       </c>
       <c r="E568" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="569" spans="1:5">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>1</v>
       </c>
@@ -11469,10 +11485,10 @@
         <v>70</v>
       </c>
       <c r="E569" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="570" spans="1:5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>1</v>
       </c>
@@ -11486,7 +11502,7 @@
         <v>71</v>
       </c>
       <c r="E570" t="s">
-        <v>473</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
